--- a/sitgui/modules_table.xlsx
+++ b/sitgui/modules_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="246">
   <si>
     <t>Module</t>
   </si>
@@ -106,6 +106,18 @@
     <t>B2-M32</t>
   </si>
   <si>
+    <t>B3-M02</t>
+  </si>
+  <si>
+    <t>B3-M01</t>
+  </si>
+  <si>
+    <t>B3-M20</t>
+  </si>
+  <si>
+    <t>B3-M16</t>
+  </si>
+  <si>
     <t>2014.28</t>
   </si>
   <si>
@@ -115,7 +127,7 @@
     <t>2012.75</t>
   </si>
   <si>
-    <t>1934.79</t>
+    <t>1985.88</t>
   </si>
   <si>
     <t>2044.73</t>
@@ -142,7 +154,7 @@
     <t>2014.85</t>
   </si>
   <si>
-    <t>217.141</t>
+    <t>2183.52</t>
   </si>
   <si>
     <t>2033.86</t>
@@ -154,6 +166,18 @@
     <t>100.359</t>
   </si>
   <si>
+    <t>2027.72</t>
+  </si>
+  <si>
+    <t>2003.28</t>
+  </si>
+  <si>
+    <t>2042.22</t>
+  </si>
+  <si>
+    <t>2027.99</t>
+  </si>
+  <si>
     <t>101.921</t>
   </si>
   <si>
@@ -163,7 +187,7 @@
     <t>74.3471</t>
   </si>
   <si>
-    <t>409.286</t>
+    <t>418.556</t>
   </si>
   <si>
     <t>72.3301</t>
@@ -190,7 +214,7 @@
     <t>78.8663</t>
   </si>
   <si>
-    <t>672.501</t>
+    <t>93.0333</t>
   </si>
   <si>
     <t>90.8427</t>
@@ -202,6 +226,18 @@
     <t>485.719</t>
   </si>
   <si>
+    <t>93.7777</t>
+  </si>
+  <si>
+    <t>99.5041</t>
+  </si>
+  <si>
+    <t>97.6455</t>
+  </si>
+  <si>
+    <t>95.1845</t>
+  </si>
+  <si>
     <t>204.071</t>
   </si>
   <si>
@@ -211,7 +247,7 @@
     <t>188.171</t>
   </si>
   <si>
-    <t>195.687</t>
+    <t>218.838</t>
   </si>
   <si>
     <t>198.707</t>
@@ -238,7 +274,7 @@
     <t>187.005</t>
   </si>
   <si>
-    <t>47.9739</t>
+    <t>236.192</t>
   </si>
   <si>
     <t>203.595</t>
@@ -250,6 +286,18 @@
     <t>21.1457</t>
   </si>
   <si>
+    <t>164.239</t>
+  </si>
+  <si>
+    <t>180.924</t>
+  </si>
+  <si>
+    <t>171.572</t>
+  </si>
+  <si>
+    <t>195.405</t>
+  </si>
+  <si>
     <t>19.0862</t>
   </si>
   <si>
@@ -259,7 +307,7 @@
     <t>19.1875</t>
   </si>
   <si>
-    <t>45.6208</t>
+    <t>51.577</t>
   </si>
   <si>
     <t>18.4883</t>
@@ -286,7 +334,7 @@
     <t>16.4619</t>
   </si>
   <si>
-    <t>164.587</t>
+    <t>32.1689</t>
   </si>
   <si>
     <t>25.1228</t>
@@ -298,13 +346,25 @@
     <t>116.852</t>
   </si>
   <si>
+    <t>12.0431</t>
+  </si>
+  <si>
+    <t>12.6158</t>
+  </si>
+  <si>
+    <t>14.4513</t>
+  </si>
+  <si>
+    <t>13.8169</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>1142</t>
+    <t>1132</t>
   </si>
   <si>
     <t>49</t>
@@ -322,15 +382,21 @@
     <t>14</t>
   </si>
   <si>
-    <t>24312</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
     <t>25757</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>9.60903</t>
   </si>
   <si>
@@ -340,7 +406,7 @@
     <t>9.8935</t>
   </si>
   <si>
-    <t>9.56281</t>
+    <t>8.85012</t>
   </si>
   <si>
     <t>9.24779</t>
@@ -367,7 +433,7 @@
     <t>9.66739</t>
   </si>
   <si>
-    <t>8.77606</t>
+    <t>8.70064</t>
   </si>
   <si>
     <t>9.81556</t>
@@ -379,6 +445,18 @@
     <t>8.0729</t>
   </si>
   <si>
+    <t>10.042</t>
+  </si>
+  <si>
+    <t>10.0407</t>
+  </si>
+  <si>
+    <t>10.0073</t>
+  </si>
+  <si>
+    <t>10.0088</t>
+  </si>
+  <si>
     <t>0.44985</t>
   </si>
   <si>
@@ -388,7 +466,7 @@
     <t>0.466965</t>
   </si>
   <si>
-    <t>0.838751</t>
+    <t>0.61154</t>
   </si>
   <si>
     <t>0.45495</t>
@@ -415,7 +493,7 @@
     <t>0.448416</t>
   </si>
   <si>
-    <t>0.72181</t>
+    <t>0.863951</t>
   </si>
   <si>
     <t>0.599208</t>
@@ -427,6 +505,18 @@
     <t>0.757607</t>
   </si>
   <si>
+    <t>0.264555</t>
+  </si>
+  <si>
+    <t>0.252796</t>
+  </si>
+  <si>
+    <t>0.216594</t>
+  </si>
+  <si>
+    <t>0.215549</t>
+  </si>
+  <si>
     <t>0.422877</t>
   </si>
   <si>
@@ -436,7 +526,7 @@
     <t>0.441649</t>
   </si>
   <si>
-    <t>0.475095</t>
+    <t>0.636762</t>
   </si>
   <si>
     <t>0.454038</t>
@@ -463,7 +553,7 @@
     <t>0.410715</t>
   </si>
   <si>
-    <t>0.852757</t>
+    <t>0.667359</t>
   </si>
   <si>
     <t>0.601777</t>
@@ -475,6 +565,18 @@
     <t>1.1717</t>
   </si>
   <si>
+    <t>0.210319</t>
+  </si>
+  <si>
+    <t>0.220892</t>
+  </si>
+  <si>
+    <t>0.175227</t>
+  </si>
+  <si>
+    <t>0.194243</t>
+  </si>
+  <si>
     <t>0.106607</t>
   </si>
   <si>
@@ -484,7 +586,7 @@
     <t>0.0876431</t>
   </si>
   <si>
-    <t>0.159128</t>
+    <t>0.223516</t>
   </si>
   <si>
     <t>0.116004</t>
@@ -511,7 +613,7 @@
     <t>0.105987</t>
   </si>
   <si>
-    <t>0.166286</t>
+    <t>0.126727</t>
   </si>
   <si>
     <t>0.0915808</t>
@@ -523,15 +625,33 @@
     <t>0.247244</t>
   </si>
   <si>
+    <t>0.177901</t>
+  </si>
+  <si>
+    <t>0.172714</t>
+  </si>
+  <si>
+    <t>0.166021</t>
+  </si>
+  <si>
+    <t>0.156363</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>749</t>
+    <t>32</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>0.319</t>
   </si>
   <si>
@@ -541,7 +661,7 @@
     <t>0.333188</t>
   </si>
   <si>
-    <t>0.349931</t>
+    <t>0.331286</t>
   </si>
   <si>
     <t>0.33998</t>
@@ -571,7 +691,7 @@
     <t>0.303154</t>
   </si>
   <si>
-    <t>0.3155</t>
+    <t>0.332731</t>
   </si>
   <si>
     <t>0.252167</t>
@@ -583,13 +703,25 @@
     <t>0.2973</t>
   </si>
   <si>
+    <t>0.0858769</t>
+  </si>
+  <si>
+    <t>0.11346</t>
+  </si>
+  <si>
+    <t>0.0525385</t>
+  </si>
+  <si>
+    <t>0.0768571</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
     <t>48</t>
   </si>
   <si>
-    <t>29</t>
+    <t>35</t>
   </si>
   <si>
     <t>50</t>
@@ -608,6 +740,18 @@
   </si>
   <si>
     <t>46</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>62</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1017,40 +1161,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="K2" t="s">
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="M2" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1058,37 +1202,37 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="J3" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="K3" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="L3" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="M3" t="s">
         <v>5</v>
@@ -1099,40 +1243,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="J4" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="M4" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1140,40 +1284,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="J5" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="K5" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="L5" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="M5" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1181,40 +1325,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="I6" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="J6" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="K6" t="s">
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="M6" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1222,37 +1366,37 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="J7" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="K7" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="L7" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="M7" t="s">
         <v>7</v>
@@ -1263,37 +1407,37 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="J8" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="K8" t="s">
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="M8" t="s">
         <v>7</v>
@@ -1304,450 +1448,573 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="I9" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="K9" t="s">
         <v>9</v>
       </c>
       <c r="L9" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="M9" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="J10" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="K10" t="s">
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="M10" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="I11" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="J11" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="K11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="M11" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="I12" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="J12" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="K12" t="s">
         <v>5</v>
       </c>
       <c r="L12" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="M12" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="H13" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="J13" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="K13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="M13" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" t="s">
+        <v>178</v>
+      </c>
+      <c r="J14" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>224</v>
+      </c>
+      <c r="M14" t="s">
         <v>115</v>
-      </c>
-      <c r="H14" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" t="s">
-        <v>147</v>
-      </c>
-      <c r="J14" t="s">
-        <v>163</v>
-      </c>
-      <c r="K14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" t="s">
-        <v>183</v>
-      </c>
-      <c r="M14" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="K15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="M15" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="K16" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="L16" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="M16" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="M17" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="K18" t="s">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="M18" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" t="s">
+        <v>210</v>
+      </c>
+      <c r="L19" t="s">
+        <v>229</v>
+      </c>
+      <c r="M19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I21" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>231</v>
+      </c>
+      <c r="M21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
         <v>93</v>
       </c>
-      <c r="F19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" t="s">
-        <v>152</v>
-      </c>
-      <c r="J19" t="s">
-        <v>168</v>
-      </c>
-      <c r="K19" t="s">
-        <v>169</v>
-      </c>
-      <c r="L19" t="s">
-        <v>188</v>
-      </c>
-      <c r="M19" t="s">
-        <v>10</v>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s">
+        <v>232</v>
+      </c>
+      <c r="M22" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
